--- a/www.eia.gov/electricity/monthly/xls/table_1_14_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_14_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.14.B. Utility Scale Facility Net Generation from Wind</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,37 +1392,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>2063</v>
+        <v>2289</v>
       </c>
       <c r="C7" s="10">
-        <v>1784</v>
+        <v>2050</v>
       </c>
       <c r="D7" s="11">
-        <v>0.157</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E7" s="10">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F7" s="10">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G7" s="10">
-        <v>1827</v>
+        <v>2032</v>
       </c>
       <c r="H7" s="10">
-        <v>1537</v>
+        <v>1772</v>
       </c>
       <c r="I7" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J7" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,13 +1468,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="13">
-        <v>1262</v>
+        <v>1405</v>
       </c>
       <c r="C9" s="13">
-        <v>992</v>
+        <v>1160</v>
       </c>
       <c r="D9" s="14">
-        <v>0.27200000000000002</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>1262</v>
+        <v>1405</v>
       </c>
       <c r="H9" s="13">
-        <v>992</v>
+        <v>1160</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1506,37 +1506,37 @@
         <v>21</v>
       </c>
       <c r="B10" s="13">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C10" s="13">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D10" s="14">
-        <v>4.4999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E10" s="13">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F10" s="13">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G10" s="13">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H10" s="13">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I10" s="13">
+        <v>25</v>
+      </c>
+      <c r="J10" s="13">
         <v>23</v>
-      </c>
-      <c r="J10" s="13">
-        <v>21</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,13 +1544,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="13">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="C11" s="13">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="D11" s="14">
-        <v>4.5999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="H11" s="13">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="14">
-        <v>1.151</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1597,16 +1597,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="13">
+        <v>7</v>
+      </c>
+      <c r="J12" s="13">
         <v>6</v>
-      </c>
-      <c r="J12" s="13">
-        <v>5</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -1620,25 +1620,25 @@
         <v>24</v>
       </c>
       <c r="B13" s="13">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C13" s="13">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D13" s="14">
-        <v>-8.6999999999999994E-2</v>
+        <v>-0.113</v>
       </c>
       <c r="E13" s="13">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F13" s="13">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G13" s="13">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H13" s="13">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="10">
-        <v>5706</v>
+        <v>6446</v>
       </c>
       <c r="C14" s="10">
-        <v>5807</v>
+        <v>6587</v>
       </c>
       <c r="D14" s="11">
-        <v>-1.7000000000000001E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>5703</v>
+        <v>6443</v>
       </c>
       <c r="H14" s="10">
-        <v>5805</v>
+        <v>6584</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>26</v>
       </c>
       <c r="B15" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="14">
-        <v>4.9000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>27</v>
       </c>
       <c r="B16" s="13">
-        <v>3038</v>
+        <v>3410</v>
       </c>
       <c r="C16" s="13">
-        <v>3161</v>
+        <v>3576</v>
       </c>
       <c r="D16" s="14">
-        <v>-3.9E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>3035</v>
+        <v>3407</v>
       </c>
       <c r="H16" s="13">
-        <v>3160</v>
+        <v>3574</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="13">
-        <v>2650</v>
+        <v>3017</v>
       </c>
       <c r="C17" s="13">
-        <v>2628</v>
+        <v>2991</v>
       </c>
       <c r="D17" s="14">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>2650</v>
+        <v>3017</v>
       </c>
       <c r="H17" s="13">
-        <v>2628</v>
+        <v>2991</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1810,37 +1810,37 @@
         <v>29</v>
       </c>
       <c r="B18" s="10">
-        <v>17947</v>
+        <v>20262</v>
       </c>
       <c r="C18" s="10">
-        <v>17336</v>
+        <v>20138</v>
       </c>
       <c r="D18" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E18" s="10">
-        <v>2245</v>
+        <v>2543</v>
       </c>
       <c r="F18" s="10">
-        <v>2393</v>
+        <v>2741</v>
       </c>
       <c r="G18" s="10">
-        <v>15643</v>
+        <v>17653</v>
       </c>
       <c r="H18" s="10">
-        <v>14907</v>
+        <v>17355</v>
       </c>
       <c r="I18" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="10">
         <v>5</v>
       </c>
       <c r="K18" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L18" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,31 +1848,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="13">
-        <v>8371</v>
+        <v>9442</v>
       </c>
       <c r="C19" s="13">
-        <v>8059</v>
+        <v>9432</v>
       </c>
       <c r="D19" s="14">
-        <v>3.9E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E19" s="13">
+        <v>13</v>
+      </c>
+      <c r="F19" s="13">
         <v>12</v>
       </c>
-      <c r="F19" s="13">
-        <v>10</v>
-      </c>
       <c r="G19" s="13">
-        <v>8355</v>
+        <v>9424</v>
       </c>
       <c r="H19" s="13">
-        <v>8045</v>
+        <v>9415</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="13">
-        <v>3886</v>
+        <v>4363</v>
       </c>
       <c r="C20" s="13">
-        <v>3381</v>
+        <v>3936</v>
       </c>
       <c r="D20" s="14">
-        <v>0.14899999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="13">
-        <v>3885</v>
+        <v>4362</v>
       </c>
       <c r="H20" s="13">
-        <v>3381</v>
+        <v>3935</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>17</v>
@@ -1924,25 +1924,25 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>3560</v>
+        <v>4057</v>
       </c>
       <c r="C21" s="13">
-        <v>3765</v>
+        <v>4301</v>
       </c>
       <c r="D21" s="14">
-        <v>-5.3999999999999999E-2</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>1475</v>
+        <v>1678</v>
       </c>
       <c r="F21" s="13">
-        <v>1557</v>
+        <v>1777</v>
       </c>
       <c r="G21" s="13">
-        <v>2085</v>
+        <v>2379</v>
       </c>
       <c r="H21" s="13">
-        <v>2208</v>
+        <v>2524</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1962,25 +1962,25 @@
         <v>33</v>
       </c>
       <c r="B22" s="13">
-        <v>956</v>
+        <v>1079</v>
       </c>
       <c r="C22" s="13">
-        <v>914</v>
+        <v>1055</v>
       </c>
       <c r="D22" s="14">
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E22" s="13">
+        <v>13</v>
+      </c>
+      <c r="F22" s="13">
         <v>11</v>
       </c>
-      <c r="F22" s="13">
-        <v>10</v>
-      </c>
       <c r="G22" s="13">
-        <v>897</v>
+        <v>1014</v>
       </c>
       <c r="H22" s="13">
-        <v>879</v>
+        <v>1014</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>17</v>
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L22" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,25 +2000,25 @@
         <v>34</v>
       </c>
       <c r="B23" s="13">
-        <v>1174</v>
+        <v>1321</v>
       </c>
       <c r="C23" s="13">
-        <v>1217</v>
+        <v>1415</v>
       </c>
       <c r="D23" s="14">
-        <v>-3.5000000000000003E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>747</v>
+        <v>840</v>
       </c>
       <c r="F23" s="13">
-        <v>816</v>
+        <v>941</v>
       </c>
       <c r="G23" s="13">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="H23" s="13">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,31 +2038,31 @@
         <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>48158</v>
+        <v>53953</v>
       </c>
       <c r="C24" s="10">
-        <v>41163</v>
+        <v>46744</v>
       </c>
       <c r="D24" s="11">
-        <v>0.17</v>
+        <v>0.154</v>
       </c>
       <c r="E24" s="10">
-        <v>16718</v>
+        <v>18828</v>
       </c>
       <c r="F24" s="10">
-        <v>13639</v>
+        <v>15627</v>
       </c>
       <c r="G24" s="10">
-        <v>31415</v>
+        <v>35097</v>
       </c>
       <c r="H24" s="10">
-        <v>27499</v>
+        <v>31088</v>
       </c>
       <c r="I24" s="10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J24" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -2076,25 +2076,25 @@
         <v>36</v>
       </c>
       <c r="B25" s="13">
-        <v>15590</v>
+        <v>17634</v>
       </c>
       <c r="C25" s="13">
-        <v>13990</v>
+        <v>16035</v>
       </c>
       <c r="D25" s="14">
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="13">
-        <v>9898</v>
+        <v>11239</v>
       </c>
       <c r="F25" s="13">
-        <v>8304</v>
+        <v>9579</v>
       </c>
       <c r="G25" s="13">
-        <v>5690</v>
+        <v>6393</v>
       </c>
       <c r="H25" s="13">
-        <v>5684</v>
+        <v>6454</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>17</v>
@@ -2114,25 +2114,25 @@
         <v>37</v>
       </c>
       <c r="B26" s="13">
-        <v>11669</v>
+        <v>12891</v>
       </c>
       <c r="C26" s="13">
-        <v>8602</v>
+        <v>9754</v>
       </c>
       <c r="D26" s="14">
-        <v>0.35699999999999998</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="E26" s="13">
-        <v>710</v>
+        <v>774</v>
       </c>
       <c r="F26" s="13">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="G26" s="13">
-        <v>10959</v>
+        <v>12117</v>
       </c>
       <c r="H26" s="13">
-        <v>7899</v>
+        <v>8964</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2152,31 +2152,31 @@
         <v>38</v>
       </c>
       <c r="B27" s="13">
-        <v>8284</v>
+        <v>9301</v>
       </c>
       <c r="C27" s="13">
-        <v>7768</v>
+        <v>8871</v>
       </c>
       <c r="D27" s="14">
-        <v>6.6000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>2101</v>
+        <v>2337</v>
       </c>
       <c r="F27" s="13">
-        <v>1632</v>
+        <v>1905</v>
       </c>
       <c r="G27" s="13">
-        <v>6160</v>
+        <v>6938</v>
       </c>
       <c r="H27" s="13">
-        <v>6113</v>
+        <v>6940</v>
       </c>
       <c r="I27" s="13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J27" s="13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K27" s="13">
         <v>0</v>
@@ -2190,13 +2190,13 @@
         <v>39</v>
       </c>
       <c r="B28" s="13">
-        <v>900</v>
+        <v>1008</v>
       </c>
       <c r="C28" s="13">
-        <v>786</v>
+        <v>916</v>
       </c>
       <c r="D28" s="14">
-        <v>0.14599999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E28" s="13">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="13">
-        <v>900</v>
+        <v>1008</v>
       </c>
       <c r="H28" s="13">
-        <v>786</v>
+        <v>916</v>
       </c>
       <c r="I28" s="13">
         <v>0</v>
@@ -2228,25 +2228,25 @@
         <v>40</v>
       </c>
       <c r="B29" s="13">
-        <v>2907</v>
+        <v>3241</v>
       </c>
       <c r="C29" s="13">
-        <v>2551</v>
+        <v>2868</v>
       </c>
       <c r="D29" s="14">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E29" s="13">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F29" s="13">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G29" s="13">
-        <v>2748</v>
+        <v>3061</v>
       </c>
       <c r="H29" s="13">
-        <v>2371</v>
+        <v>2668</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -2266,25 +2266,25 @@
         <v>41</v>
       </c>
       <c r="B30" s="13">
-        <v>6303</v>
+        <v>7081</v>
       </c>
       <c r="C30" s="13">
-        <v>5402</v>
+        <v>5986</v>
       </c>
       <c r="D30" s="14">
-        <v>0.16700000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="E30" s="13">
-        <v>3066</v>
+        <v>3421</v>
       </c>
       <c r="F30" s="13">
-        <v>2153</v>
+        <v>2396</v>
       </c>
       <c r="G30" s="13">
-        <v>3237</v>
+        <v>3661</v>
       </c>
       <c r="H30" s="13">
-        <v>3250</v>
+        <v>3590</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
@@ -2304,25 +2304,25 @@
         <v>42</v>
       </c>
       <c r="B31" s="13">
-        <v>2505</v>
+        <v>2797</v>
       </c>
       <c r="C31" s="13">
-        <v>2064</v>
+        <v>2315</v>
       </c>
       <c r="D31" s="14">
-        <v>0.214</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E31" s="13">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="F31" s="13">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="G31" s="13">
-        <v>1721</v>
+        <v>1918</v>
       </c>
       <c r="H31" s="13">
-        <v>1396</v>
+        <v>1557</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>1476</v>
+        <v>1666</v>
       </c>
       <c r="C32" s="10">
-        <v>1424</v>
+        <v>1624</v>
       </c>
       <c r="D32" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -2357,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>1471</v>
+        <v>1661</v>
       </c>
       <c r="H32" s="10">
-        <v>1420</v>
+        <v>1619</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>17</v>
@@ -2404,7 +2404,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" s="13">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="C37" s="13">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="D37" s="14">
-        <v>0.215</v>
+        <v>0.189</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="H37" s="13">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>1075</v>
+        <v>1210</v>
       </c>
       <c r="C41" s="13">
-        <v>1093</v>
+        <v>1240</v>
       </c>
       <c r="D41" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>1075</v>
+        <v>1210</v>
       </c>
       <c r="H41" s="13">
-        <v>1093</v>
+        <v>1240</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C42" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="11">
-        <v>-6.8000000000000005E-2</v>
+        <v>-0.108</v>
       </c>
       <c r="E42" s="10">
         <v>0</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H42" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2874,13 +2874,13 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C46" s="13">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D46" s="14">
-        <v>-6.8000000000000005E-2</v>
+        <v>-0.108</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H46" s="13">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2912,31 +2912,31 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>63730</v>
+        <v>69941</v>
       </c>
       <c r="C47" s="10">
-        <v>46129</v>
+        <v>52438</v>
       </c>
       <c r="D47" s="11">
-        <v>0.38200000000000001</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E47" s="10">
-        <v>1387</v>
+        <v>1540</v>
       </c>
       <c r="F47" s="10">
-        <v>1382</v>
+        <v>1546</v>
       </c>
       <c r="G47" s="10">
-        <v>62308</v>
+        <v>68363</v>
       </c>
       <c r="H47" s="10">
-        <v>44723</v>
+        <v>50865</v>
       </c>
       <c r="I47" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J47" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K47" s="10">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>16059</v>
+        <v>17757</v>
       </c>
       <c r="C50" s="13">
-        <v>11002</v>
+        <v>12589</v>
       </c>
       <c r="D50" s="14">
-        <v>0.46</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="E50" s="13">
-        <v>1163</v>
+        <v>1301</v>
       </c>
       <c r="F50" s="13">
-        <v>1150</v>
+        <v>1292</v>
       </c>
       <c r="G50" s="13">
-        <v>14896</v>
+        <v>16456</v>
       </c>
       <c r="H50" s="13">
-        <v>9852</v>
+        <v>11297</v>
       </c>
       <c r="I50" s="13">
         <v>0</v>
@@ -3064,31 +3064,31 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>47671</v>
+        <v>52184</v>
       </c>
       <c r="C51" s="13">
-        <v>35127</v>
+        <v>39849</v>
       </c>
       <c r="D51" s="14">
-        <v>0.35699999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="E51" s="13">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F51" s="13">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="G51" s="13">
-        <v>47412</v>
+        <v>51907</v>
       </c>
       <c r="H51" s="13">
-        <v>34871</v>
+        <v>39568</v>
       </c>
       <c r="I51" s="13">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J51" s="13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K51" s="13">
         <v>0</v>
@@ -3102,31 +3102,31 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>19026</v>
+        <v>21186</v>
       </c>
       <c r="C52" s="10">
-        <v>14664</v>
+        <v>16562</v>
       </c>
       <c r="D52" s="11">
-        <v>0.29799999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E52" s="10">
-        <v>1940</v>
+        <v>2154</v>
       </c>
       <c r="F52" s="10">
-        <v>1632</v>
+        <v>1881</v>
       </c>
       <c r="G52" s="10">
-        <v>17074</v>
+        <v>19019</v>
       </c>
       <c r="H52" s="10">
-        <v>13024</v>
+        <v>14673</v>
       </c>
       <c r="I52" s="10">
         <v>10</v>
       </c>
       <c r="J52" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>17</v>
@@ -3140,13 +3140,13 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="C53" s="13">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="D53" s="14">
-        <v>0.31900000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="E53" s="13">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="13">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="H53" s="13">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="I53" s="13">
         <v>0</v>
@@ -3178,25 +3178,25 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>7625</v>
+        <v>8552</v>
       </c>
       <c r="C54" s="13">
-        <v>5947</v>
+        <v>6604</v>
       </c>
       <c r="D54" s="14">
-        <v>0.28199999999999997</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E54" s="13">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F54" s="13">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G54" s="13">
-        <v>7528</v>
+        <v>8432</v>
       </c>
       <c r="H54" s="13">
-        <v>5832</v>
+        <v>6475</v>
       </c>
       <c r="I54" s="13">
         <v>7</v>
@@ -3216,13 +3216,13 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>1939</v>
+        <v>2156</v>
       </c>
       <c r="C55" s="13">
-        <v>1767</v>
+        <v>1992</v>
       </c>
       <c r="D55" s="14">
-        <v>9.7000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <v>1939</v>
+        <v>2156</v>
       </c>
       <c r="H55" s="13">
-        <v>1767</v>
+        <v>1992</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
+        <v>1888</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1757</v>
+      </c>
+      <c r="D56" s="14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E56" s="13">
+        <v>204</v>
+      </c>
+      <c r="F56" s="13">
+        <v>195</v>
+      </c>
+      <c r="G56" s="13">
         <v>1685</v>
       </c>
-      <c r="C56" s="13">
-        <v>1549</v>
-      </c>
-      <c r="D56" s="14">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E56" s="13">
-        <v>183</v>
-      </c>
-      <c r="F56" s="13">
-        <v>173</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1502</v>
-      </c>
       <c r="H56" s="13">
-        <v>1375</v>
+        <v>1563</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="13">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C57" s="13">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="D57" s="14">
-        <v>0.153</v>
+        <v>0.114</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="H57" s="13">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>69</v>
       </c>
       <c r="B58" s="13">
-        <v>2937</v>
+        <v>3241</v>
       </c>
       <c r="C58" s="13">
-        <v>1490</v>
+        <v>1715</v>
       </c>
       <c r="D58" s="14">
-        <v>0.97099999999999997</v>
+        <v>0.89</v>
       </c>
       <c r="E58" s="13">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="13">
-        <v>2934</v>
+        <v>3238</v>
       </c>
       <c r="H58" s="13">
-        <v>1488</v>
+        <v>1712</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>17</v>
@@ -3368,13 +3368,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="C59" s="13">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="D59" s="14">
-        <v>0.308</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E59" s="13">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="13">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="H59" s="13">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3406,25 +3406,25 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>3436</v>
+        <v>3817</v>
       </c>
       <c r="C60" s="13">
-        <v>2811</v>
+        <v>3256</v>
       </c>
       <c r="D60" s="14">
-        <v>0.222</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E60" s="13">
-        <v>1670</v>
+        <v>1840</v>
       </c>
       <c r="F60" s="13">
-        <v>1350</v>
+        <v>1563</v>
       </c>
       <c r="G60" s="13">
-        <v>1766</v>
+        <v>1977</v>
       </c>
       <c r="H60" s="13">
-        <v>1462</v>
+        <v>1693</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3444,25 +3444,25 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>25314</v>
+        <v>26930</v>
       </c>
       <c r="C61" s="10">
-        <v>21994</v>
+        <v>23746</v>
       </c>
       <c r="D61" s="11">
-        <v>0.151</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E61" s="10">
-        <v>5414</v>
+        <v>5825</v>
       </c>
       <c r="F61" s="10">
-        <v>4744</v>
+        <v>5173</v>
       </c>
       <c r="G61" s="10">
-        <v>19891</v>
+        <v>21095</v>
       </c>
       <c r="H61" s="10">
-        <v>17242</v>
+        <v>18565</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>17</v>
@@ -3474,7 +3474,7 @@
         <v>17</v>
       </c>
       <c r="L61" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,25 +3482,25 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>12335</v>
+        <v>12899</v>
       </c>
       <c r="C62" s="13">
-        <v>10694</v>
+        <v>11313</v>
       </c>
       <c r="D62" s="14">
-        <v>0.153</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E62" s="13">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="F62" s="13">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="G62" s="13">
-        <v>11686</v>
+        <v>12226</v>
       </c>
       <c r="H62" s="13">
-        <v>10038</v>
+        <v>10636</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>17</v>
@@ -3512,7 +3512,7 @@
         <v>17</v>
       </c>
       <c r="L62" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,25 +3520,25 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>6217</v>
+        <v>6663</v>
       </c>
       <c r="C63" s="13">
-        <v>5539</v>
+        <v>6064</v>
       </c>
       <c r="D63" s="14">
-        <v>0.122</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E63" s="13">
+        <v>1193</v>
+      </c>
+      <c r="F63" s="13">
         <v>1150</v>
       </c>
-      <c r="F63" s="13">
-        <v>1068</v>
-      </c>
       <c r="G63" s="13">
-        <v>5067</v>
+        <v>5469</v>
       </c>
       <c r="H63" s="13">
-        <v>4471</v>
+        <v>4914</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3558,25 +3558,25 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>6762</v>
+        <v>7368</v>
       </c>
       <c r="C64" s="13">
-        <v>5761</v>
+        <v>6369</v>
       </c>
       <c r="D64" s="14">
-        <v>0.17399999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="E64" s="13">
-        <v>3624</v>
+        <v>3968</v>
       </c>
       <c r="F64" s="13">
-        <v>3028</v>
+        <v>3355</v>
       </c>
       <c r="G64" s="13">
-        <v>3138</v>
+        <v>3400</v>
       </c>
       <c r="H64" s="13">
-        <v>2733</v>
+        <v>3014</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3596,25 +3596,25 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="C65" s="10">
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="D65" s="11">
-        <v>0.104</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E65" s="10">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F65" s="10">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G65" s="10">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="H65" s="10">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="I65" s="10">
         <v>0</v>
@@ -3634,25 +3634,25 @@
         <v>77</v>
       </c>
       <c r="B66" s="13">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C66" s="13">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D66" s="14">
-        <v>4.8000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E66" s="13">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F66" s="13">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G66" s="13">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H66" s="13">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I66" s="13">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="C67" s="13">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="D67" s="14">
-        <v>0.11899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="13">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="H67" s="13">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>184119</v>
+        <v>203453</v>
       </c>
       <c r="C68" s="10">
-        <v>150938</v>
+        <v>170620</v>
       </c>
       <c r="D68" s="11">
-        <v>0.22</v>
+        <v>0.192</v>
       </c>
       <c r="E68" s="10">
-        <v>27995</v>
+        <v>31209</v>
       </c>
       <c r="F68" s="10">
-        <v>24092</v>
+        <v>27308</v>
       </c>
       <c r="G68" s="10">
-        <v>155944</v>
+        <v>172047</v>
       </c>
       <c r="H68" s="10">
-        <v>126712</v>
+        <v>143159</v>
       </c>
       <c r="I68" s="10">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J68" s="10">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K68" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L68" s="10">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
